--- a/src/main/python/data/sheet.xlsx
+++ b/src/main/python/data/sheet.xlsx
@@ -367,8 +367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="HF32" sqref="HF32"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22868,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="3">
         <v>1</v>
@@ -22937,10 +22937,10 @@
         <v>0</v>
       </c>
       <c r="BG32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI32">
         <v>1</v>
@@ -23084,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="DD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE32">
         <v>1</v>
@@ -23156,7 +23156,7 @@
         <v>0</v>
       </c>
       <c r="EB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC32">
         <v>1</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="FX32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY32">
         <v>1</v>
@@ -23372,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="GV32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GW32" s="4">
         <v>1</v>
@@ -23444,7 +23444,7 @@
         <v>0</v>
       </c>
       <c r="HT32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HU32">
         <v>1</v>
